--- a/biology/Histoire de la zoologie et de la botanique/Anusuya_Chinsamy-Turan/Anusuya_Chinsamy-Turan.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Anusuya_Chinsamy-Turan/Anusuya_Chinsamy-Turan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anusuya Chinsamy-Turan est une paléontologue sud-africaine spécialiste des vertébrés, connue pour son expertise et ses apports dans l'étude de la microstructure des dents fossiles et des os des vertébrés éteints et actuels[1]. Elle était à la tête du Département de Sciences Biologiques (précédemment appelé département de Zoologie) à l'Université du Cap[2] de 2012 à 2015[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anusuya Chinsamy-Turan est une paléontologue sud-africaine spécialiste des vertébrés, connue pour son expertise et ses apports dans l'étude de la microstructure des dents fossiles et des os des vertébrés éteints et actuels. Elle était à la tête du Département de Sciences Biologiques (précédemment appelé département de Zoologie) à l'Université du Cap de 2012 à 2015.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Education et carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Anusuya Chinsamy-Turan a obtenu un B. Sc. de l'université du Witwatersrand en 1983, et un B. Sc. spécialisé en 1984, un U.H.D.E. (Diplôme Universitaire Supérieur de l'Éducation) de l'Université de Durban-Westville (maintenant appelée Université du KwaZulu-Natal) en 1985, et un Ph. D. en 1991 de l' Université de Witwatersrand. Elle est ensuite partie pour ses activités postdoctorales à l'Université de Pennsylvanie (1992-1994).
 </t>
@@ -542,7 +556,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est l'auteure de quatre livres ; deux ouvrages académiques, The Microstructure of Dinosaur Bone - Deciphering Biology Through Fine Scale Techniques, publié en 2005 par la Johns Hopkins University Press et Forerunners of Mammals -Radiation. Biology publié par l'Indiana University Press en 2012 ; un livre pour enfants, les Fameux dinosaures de l'Afrique, publié en 2008 et Fossiles Pour l'Afrique, publié en 2014 par Cambridge University Press.
 </t>
@@ -573,10 +589,12 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chinsamy-Turan a reçu le  prix "Distinguished Women Scientist Award" du Ministère Sud-Africain de la Science et de la Technologie (en) en 2002 et a remporté le prix "Femme Sud-Africaine de l'Année" en 2005. La Fondation Nationale pour la Recherche de l'Afrique du Sud (en) lui décerne le "Prix du Président" en 1995 et le "Transformation Award" en 2012[4].
-En 2013, elle a gagné le prix The World Academy of Science (TWAS) sub-saharien pour la Compréhension du Public et la Vulgarisation de la Science[5]. Elle est membre de la Société royale d'Afrique du Sud.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chinsamy-Turan a reçu le  prix "Distinguished Women Scientist Award" du Ministère Sud-Africain de la Science et de la Technologie (en) en 2002 et a remporté le prix "Femme Sud-Africaine de l'Année" en 2005. La Fondation Nationale pour la Recherche de l'Afrique du Sud (en) lui décerne le "Prix du Président" en 1995 et le "Transformation Award" en 2012.
+En 2013, elle a gagné le prix The World Academy of Science (TWAS) sub-saharien pour la Compréhension du Public et la Vulgarisation de la Science. Elle est membre de la Société royale d'Afrique du Sud.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Sélection de publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Chinsamy, A, Buffetaut, E, Angst, D., Canoville, A. 2014. Insight into the growth dynamics and systematic affinities of the Late Cretaceous Gargantuavis from bone microstructure. Naturwissenschaften 101:447-452
 Chinsamy, A., Chiappe, L.,  Marugán-Lobón, J., Chunling, G. and Fengjiao, Z. 2013. Gender Identification of the Mesozoic bird Confuciusornis sanctus. Nature Communications.
